--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H2">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I2">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J2">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>7073.295014586934</v>
+        <v>7201.331432712144</v>
       </c>
       <c r="R2">
-        <v>7073.295014586934</v>
+        <v>64811.9828944093</v>
       </c>
       <c r="S2">
-        <v>0.175277568308561</v>
+        <v>0.1739514646583576</v>
       </c>
       <c r="T2">
-        <v>0.175277568308561</v>
+        <v>0.1739514646583575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H3">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I3">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J3">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>7529.109205858668</v>
+        <v>7590.470092324074</v>
       </c>
       <c r="R3">
-        <v>7529.109205858668</v>
+        <v>68314.23083091667</v>
       </c>
       <c r="S3">
-        <v>0.1865727288924022</v>
+        <v>0.1833512875143363</v>
       </c>
       <c r="T3">
-        <v>0.1865727288924022</v>
+        <v>0.1833512875143362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H4">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I4">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J4">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>4854.957667950184</v>
+        <v>4904.120004129836</v>
       </c>
       <c r="R4">
-        <v>4854.957667950184</v>
+        <v>44137.08003716853</v>
       </c>
       <c r="S4">
-        <v>0.1203067555537276</v>
+        <v>0.1184612686625717</v>
       </c>
       <c r="T4">
-        <v>0.1203067555537276</v>
+        <v>0.1184612686625717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H5">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I5">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J5">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>3764.429644934988</v>
+        <v>3825.091059932053</v>
       </c>
       <c r="R5">
-        <v>3764.429644934988</v>
+        <v>34425.81953938847</v>
       </c>
       <c r="S5">
-        <v>0.0932832679638199</v>
+        <v>0.09239682946743316</v>
       </c>
       <c r="T5">
-        <v>0.0932832679638199</v>
+        <v>0.09239682946743315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H6">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I6">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J6">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>2488.657237070687</v>
+        <v>2627.583725220361</v>
       </c>
       <c r="R6">
-        <v>2488.657237070687</v>
+        <v>23648.25352698325</v>
       </c>
       <c r="S6">
-        <v>0.06166939000390691</v>
+        <v>0.06347049039269174</v>
       </c>
       <c r="T6">
-        <v>0.06166939000390691</v>
+        <v>0.06347049039269173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H7">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I7">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J7">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>3435.990708429311</v>
+        <v>3484.327586639933</v>
       </c>
       <c r="R7">
-        <v>3435.990708429311</v>
+        <v>31358.94827975939</v>
       </c>
       <c r="S7">
-        <v>0.08514448992475253</v>
+        <v>0.08416553143107698</v>
       </c>
       <c r="T7">
-        <v>0.08514448992475253</v>
+        <v>0.08416553143107697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H8">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I8">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J8">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>3657.411322549046</v>
+        <v>3672.610347874168</v>
       </c>
       <c r="R8">
-        <v>3657.411322549046</v>
+        <v>33053.49313086751</v>
       </c>
       <c r="S8">
-        <v>0.09063133399618728</v>
+        <v>0.08871358791099936</v>
       </c>
       <c r="T8">
-        <v>0.09063133399618728</v>
+        <v>0.08871358791099934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H9">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I9">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J9">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>2358.390170704429</v>
+        <v>2372.833520890575</v>
       </c>
       <c r="R9">
-        <v>2358.390170704429</v>
+        <v>21355.50168801518</v>
       </c>
       <c r="S9">
-        <v>0.05844134782889789</v>
+        <v>0.05731688233017647</v>
       </c>
       <c r="T9">
-        <v>0.05844134782889789</v>
+        <v>0.05731688233017647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H10">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I10">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J10">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>1828.644960496931</v>
+        <v>1850.750854347434</v>
       </c>
       <c r="R10">
-        <v>1828.644960496931</v>
+        <v>16656.75768912691</v>
       </c>
       <c r="S10">
-        <v>0.04531416282151558</v>
+        <v>0.04470573599335011</v>
       </c>
       <c r="T10">
-        <v>0.04531416282151558</v>
+        <v>0.0447057359933501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H11">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I11">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J11">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>1208.913685263501</v>
+        <v>1271.343021153431</v>
       </c>
       <c r="R11">
-        <v>1208.913685263501</v>
+        <v>11442.08719038088</v>
       </c>
       <c r="S11">
-        <v>0.02995710635721332</v>
+        <v>0.03070987395584028</v>
       </c>
       <c r="T11">
-        <v>0.02995710635721332</v>
+        <v>0.03070987395584027</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H12">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I12">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J12">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>592.875954234817</v>
+        <v>2.962804939900889</v>
       </c>
       <c r="R12">
-        <v>592.875954234817</v>
+        <v>26.665244459108</v>
       </c>
       <c r="S12">
-        <v>0.01469157660646012</v>
+        <v>7.156791262955026E-05</v>
       </c>
       <c r="T12">
-        <v>0.01469157660646012</v>
+        <v>7.156791262955023E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H13">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I13">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J13">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>631.0818078075429</v>
+        <v>3.122906159207</v>
       </c>
       <c r="R13">
-        <v>631.0818078075429</v>
+        <v>28.106155432863</v>
       </c>
       <c r="S13">
-        <v>0.015638324776241</v>
+        <v>7.543523103477998E-05</v>
       </c>
       <c r="T13">
-        <v>0.015638324776241</v>
+        <v>7.543523103477996E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H14">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I14">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J14">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>406.9373119910366</v>
+        <v>2.017675635383222</v>
       </c>
       <c r="R14">
-        <v>406.9373119910366</v>
+        <v>18.159080718449</v>
       </c>
       <c r="S14">
-        <v>0.01008398240886556</v>
+        <v>4.873788066274429E-05</v>
       </c>
       <c r="T14">
-        <v>0.01008398240886556</v>
+        <v>4.873788066274427E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H15">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I15">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J15">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>315.5304300595468</v>
+        <v>1.573736578274556</v>
       </c>
       <c r="R15">
-        <v>315.5304300595468</v>
+        <v>14.163629204471</v>
       </c>
       <c r="S15">
-        <v>0.007818902844309198</v>
+        <v>3.801432906333971E-05</v>
       </c>
       <c r="T15">
-        <v>0.007818902844309198</v>
+        <v>3.801432906333969E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01809766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.054293</v>
+      </c>
+      <c r="I16">
+        <v>0.0002598686748269442</v>
+      </c>
+      <c r="J16">
+        <v>0.0002598686748269441</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N16">
+        <v>179.20309</v>
+      </c>
+      <c r="O16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q16">
+        <v>1.081052596152222</v>
+      </c>
+      <c r="R16">
+        <v>9.72947336537</v>
+      </c>
+      <c r="S16">
+        <v>2.611332143652996E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.611332143652995E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.030675</v>
+      </c>
+      <c r="H17">
+        <v>0.092025</v>
+      </c>
+      <c r="I17">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J17">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N17">
+        <v>491.135956</v>
+      </c>
+      <c r="O17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q17">
+        <v>5.021865150099999</v>
+      </c>
+      <c r="R17">
+        <v>45.19678635089999</v>
+      </c>
+      <c r="S17">
+        <v>0.0001213054566838149</v>
+      </c>
+      <c r="T17">
+        <v>0.0001213054566838149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.030675</v>
+      </c>
+      <c r="H18">
+        <v>0.092025</v>
+      </c>
+      <c r="I18">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J18">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.558497</v>
+      </c>
+      <c r="N18">
+        <v>517.675491</v>
+      </c>
+      <c r="O18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q18">
+        <v>5.293231895475</v>
+      </c>
+      <c r="R18">
+        <v>47.63908705927499</v>
+      </c>
+      <c r="S18">
+        <v>0.0001278604449187856</v>
+      </c>
+      <c r="T18">
+        <v>0.0001278604449187856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.030675</v>
+      </c>
+      <c r="H19">
+        <v>0.092025</v>
+      </c>
+      <c r="I19">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J19">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N19">
+        <v>334.464493</v>
+      </c>
+      <c r="O19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q19">
+        <v>3.419899440925</v>
+      </c>
+      <c r="R19">
+        <v>30.779094968325</v>
+      </c>
+      <c r="S19">
+        <v>8.26092400123228E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.26092400123228E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.030675</v>
+      </c>
+      <c r="H20">
+        <v>0.092025</v>
+      </c>
+      <c r="I20">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J20">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N20">
+        <v>260.873947</v>
+      </c>
+      <c r="O20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q20">
+        <v>2.667436108075</v>
+      </c>
+      <c r="R20">
+        <v>24.006924972675</v>
+      </c>
+      <c r="S20">
+        <v>6.443314298443326E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.443314298443325E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.030675</v>
+      </c>
+      <c r="H21">
+        <v>0.092025</v>
+      </c>
+      <c r="I21">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J21">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>1.83235159525</v>
+      </c>
+      <c r="R21">
+        <v>16.49116435725</v>
+      </c>
+      <c r="S21">
+        <v>4.42612934484495E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.426129344844949E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H22">
+        <v>12.965183</v>
+      </c>
+      <c r="I22">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J22">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N22">
+        <v>491.135956</v>
+      </c>
+      <c r="O22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q22">
+        <v>707.5186163799942</v>
+      </c>
+      <c r="R22">
+        <v>6367.667547419947</v>
+      </c>
+      <c r="S22">
+        <v>0.01709043678135543</v>
+      </c>
+      <c r="T22">
+        <v>0.01709043678135543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H23">
+        <v>12.965183</v>
+      </c>
+      <c r="I23">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J23">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q23">
+        <v>745.750830603317</v>
+      </c>
+      <c r="R23">
+        <v>6711.757475429852</v>
+      </c>
+      <c r="S23">
+        <v>0.01801395345648982</v>
+      </c>
+      <c r="T23">
+        <v>0.01801395345648981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.65727860887052</v>
-      </c>
-      <c r="H16">
-        <v>3.65727860887052</v>
-      </c>
-      <c r="I16">
-        <v>0.05340184834901589</v>
-      </c>
-      <c r="J16">
-        <v>0.05340184834901589</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q16">
-        <v>208.5965637159036</v>
-      </c>
-      <c r="R16">
-        <v>208.5965637159036</v>
-      </c>
-      <c r="S16">
-        <v>0.005169061713140004</v>
-      </c>
-      <c r="T16">
-        <v>0.005169061713140004</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H24">
+        <v>12.965183</v>
+      </c>
+      <c r="I24">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J24">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N24">
+        <v>334.464493</v>
+      </c>
+      <c r="O24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q24">
+        <v>481.8214843052465</v>
+      </c>
+      <c r="R24">
+        <v>4336.393358747219</v>
+      </c>
+      <c r="S24">
+        <v>0.0116386190084291</v>
+      </c>
+      <c r="T24">
+        <v>0.01163861900842909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H25">
+        <v>12.965183</v>
+      </c>
+      <c r="I25">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J25">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N25">
+        <v>260.873947</v>
+      </c>
+      <c r="O25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q25">
+        <v>375.8087180874779</v>
+      </c>
+      <c r="R25">
+        <v>3382.278462787301</v>
+      </c>
+      <c r="S25">
+        <v>0.00907783200280732</v>
+      </c>
+      <c r="T25">
+        <v>0.009077832002807318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H26">
+        <v>12.965183</v>
+      </c>
+      <c r="I26">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J26">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N26">
+        <v>179.20309</v>
+      </c>
+      <c r="O26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q26">
+        <v>258.1556506683855</v>
+      </c>
+      <c r="R26">
+        <v>2323.40085601547</v>
+      </c>
+      <c r="S26">
+        <v>0.006235868181209986</v>
+      </c>
+      <c r="T26">
+        <v>0.006235868181209983</v>
       </c>
     </row>
   </sheetData>
